--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF305E7-72B7-40A3-B30E-A0F571023870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22E1D6-D77D-424F-B634-A673486F3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -249,9 +249,6 @@
     <t>cash</t>
   </si>
   <si>
-    <t>Notice no.435062</t>
-  </si>
-  <si>
     <t>Received</t>
   </si>
   <si>
@@ -261,13 +258,19 @@
     <t>L Pvt LTd</t>
   </si>
   <si>
-    <t>13-Feb-2022</t>
-  </si>
-  <si>
     <t>Notice no.43507698023</t>
   </si>
   <si>
     <t>Test test</t>
+  </si>
+  <si>
+    <t>Notice no.48023</t>
+  </si>
+  <si>
+    <t>NNotice no.48023</t>
+  </si>
+  <si>
+    <t>13-Jan-2022</t>
   </si>
 </sst>
 </file>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1073,7 @@
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
@@ -1122,10 +1125,10 @@
         <v>67</v>
       </c>
       <c r="AK2" s="31">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="AL2" s="31">
-        <v>44845</v>
+        <v>44846</v>
       </c>
     </row>
   </sheetData>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1194,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="C2" s="24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>46</v>
@@ -1206,13 +1209,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1227,7 +1230,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>78</v>
       </c>

--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A22E1D6-D77D-424F-B634-A673486F3C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5528AF4-9DC7-4672-B881-AEA238EFC613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -227,12 +227,6 @@
     <t xml:space="preserve">  Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
-    <t>performer@avantis.info</t>
-  </si>
-  <si>
-    <t>2021-2022</t>
-  </si>
-  <si>
     <t>abc firm</t>
   </si>
   <si>
@@ -252,25 +246,32 @@
     <t>Received</t>
   </si>
   <si>
-    <t>15/12/2022</t>
-  </si>
-  <si>
-    <t>L Pvt LTd</t>
-  </si>
-  <si>
-    <t>Notice no.43507698023</t>
-  </si>
-  <si>
     <t>Test test</t>
   </si>
   <si>
-    <t>Notice no.48023</t>
-  </si>
-  <si>
-    <t>NNotice no.48023</t>
-  </si>
-  <si>
-    <t>13-Jan-2022</t>
+    <t>Notice no.4GH23</t>
+  </si>
+  <si>
+    <t>345d6458</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Notice no.43507023</t>
+  </si>
+  <si>
+    <t>14-Jan-2023</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+kssharma021@gmail.com</t>
+  </si>
+  <si>
+    <t>Notice no3456dfg</t>
   </si>
 </sst>
 </file>
@@ -419,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -502,6 +503,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1055,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>64</v>
@@ -1066,14 +1070,14 @@
         <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
@@ -1081,8 +1085,8 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="29" t="s">
-        <v>66</v>
+      <c r="P2" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>34</v>
@@ -1108,10 +1112,10 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE2" s="14" t="s">
         <v>66</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>79</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5" t="s">
@@ -1122,20 +1126,20 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AK2" s="31">
-        <v>44845</v>
+        <v>45202</v>
       </c>
       <c r="AL2" s="31">
-        <v>44846</v>
+        <v>45200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="abc@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AE2" r:id="rId3" xr:uid="{AD2B7700-6408-432F-AF55-1256C3D5338D}"/>
+    <hyperlink ref="P2" r:id="rId2" display="abhay1@avantis.co.in" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AE2" r:id="rId3" display="abhay1@avantis.co.in" xr:uid="{AD2B7700-6408-432F-AF55-1256C3D5338D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1147,7 +1151,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,28 +1198,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="H2" s="31">
+        <v>45171</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1229,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,17 +1282,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="13">
-        <v>3456458</v>
+        <v>73</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="24" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="12">
         <v>567890</v>

--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5528AF4-9DC7-4672-B881-AEA238EFC613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815CBA-F678-49B1-8844-E8533F246976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Contact Person of Department/Authorized Represtative</t>
-  </si>
-  <si>
-    <t>15-Dec-2022</t>
   </si>
   <si>
     <t>Legal Notice Date    (dd-MMM-yyyy)</t>
@@ -249,12 +246,6 @@
     <t>Test test</t>
   </si>
   <si>
-    <t>Notice no.4GH23</t>
-  </si>
-  <si>
-    <t>345d6458</t>
-  </si>
-  <si>
     <t>2022-2023</t>
   </si>
   <si>
@@ -262,23 +253,32 @@
   </si>
   <si>
     <t>14-Jan-2023</t>
-  </si>
-  <si>
-    <t>Bihar</t>
   </si>
   <si>
     <t xml:space="preserve">	
 kssharma021@gmail.com</t>
   </si>
   <si>
-    <t>Notice no3456dfg</t>
+    <t>A/Bita Pharma Company</t>
+  </si>
+  <si>
+    <t>15-03-2023</t>
+  </si>
+  <si>
+    <t>15-jan-2023</t>
+  </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>Notice no 11042023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +325,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -420,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -506,6 +512,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
@@ -963,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>9</v>
@@ -1023,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="AE1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="AG1" s="16" t="s">
         <v>27</v>
@@ -1041,10 +1048,10 @@
         <v>30</v>
       </c>
       <c r="AK1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL1" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
@@ -1052,32 +1059,32 @@
         <v>31</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
@@ -1086,7 +1093,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>34</v>
@@ -1112,10 +1119,10 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5" t="s">
@@ -1126,13 +1133,13 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="31">
-        <v>45202</v>
-      </c>
-      <c r="AL2" s="31">
-        <v>45200</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1158,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>40</v>
@@ -1201,25 +1208,25 @@
         <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="31">
-        <v>45171</v>
+        <v>71</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1234,12 +1241,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="25" customWidth="1"/>
@@ -1259,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>48</v>
@@ -1282,17 +1289,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="13">
+        <v>345506458</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="24" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="12">
         <v>567890</v>

--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815CBA-F678-49B1-8844-E8533F246976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78301785-CE60-43EE-BC75-2D9A2EA5158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -224,22 +224,12 @@
     <t xml:space="preserve">  Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
-    <t>abc firm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-abc opponent</t>
-  </si>
-  <si>
     <t>Tax Laws</t>
   </si>
   <si>
     <t>Automate Test</t>
   </si>
   <si>
-    <t>cash</t>
-  </si>
-  <si>
     <t>Received</t>
   </si>
   <si>
@@ -255,23 +245,35 @@
     <t>14-Jan-2023</t>
   </si>
   <si>
+    <t>15-03-2023</t>
+  </si>
+  <si>
+    <t>15-jan-2023</t>
+  </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Test Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
-kssharma021@gmail.com</t>
-  </si>
-  <si>
-    <t>A/Bita Pharma Company</t>
-  </si>
-  <si>
-    <t>15-03-2023</t>
-  </si>
-  <si>
-    <t>15-jan-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
-  </si>
-  <si>
-    <t>Notice no 11042023</t>
+performer@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A pvt ltd</t>
+  </si>
+  <si>
+    <t>MrSawant,</t>
+  </si>
+  <si>
+    <t>24-05-2023</t>
   </si>
 </sst>
 </file>
@@ -509,10 +511,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -898,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,8 +1063,8 @@
       <c r="B2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>80</v>
+      <c r="C2" s="4">
+        <v>63393333</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>63</v>
@@ -1077,23 +1079,25 @@
         <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J2" s="29"/>
-      <c r="K2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>34</v>
@@ -1119,10 +1123,10 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="32" t="s">
         <v>75</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5" t="s">
@@ -1133,20 +1137,20 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="31" t="s">
-        <v>77</v>
-      </c>
       <c r="AL2" s="31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" display="abc@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P2" r:id="rId2" display="abhay1@avantis.co.in" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AE2" r:id="rId3" display="abhay1@avantis.co.in" xr:uid="{AD2B7700-6408-432F-AF55-1256C3D5338D}"/>
+    <hyperlink ref="P2" r:id="rId2" display="fe@bitaconsulting.co.in" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AE2" r:id="rId3" display="fe@bitaconsulting.co.in" xr:uid="{AD2B7700-6408-432F-AF55-1256C3D5338D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1157,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,29 +1208,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
+      <c r="A2" s="4">
+        <v>63393333</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>77</v>
+      <c r="H2" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1240,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,18 +1292,18 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>80</v>
+      <c r="A2" s="13">
+        <v>63393333</v>
       </c>
       <c r="B2" s="13">
-        <v>345506458</v>
+        <v>9013064058</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F2" s="12">
         <v>567890</v>

--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78301785-CE60-43EE-BC75-2D9A2EA5158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -122,9 +121,6 @@
     <t xml:space="preserve">Financial Year </t>
   </si>
   <si>
-    <t>Inward</t>
-  </si>
-  <si>
     <t>Section 15A</t>
   </si>
   <si>
@@ -221,9 +217,6 @@
     <t>Notice of budget resources allocation for IT building</t>
   </si>
   <si>
-    <t xml:space="preserve">  Delhi Value Added Tax Act, 2004 </t>
-  </si>
-  <si>
     <t>Tax Laws</t>
   </si>
   <si>
@@ -237,12 +230,6 @@
   </si>
   <si>
     <t>2022-2023</t>
-  </si>
-  <si>
-    <t>Notice no.43507023</t>
-  </si>
-  <si>
-    <t>14-Jan-2023</t>
   </si>
   <si>
     <t>15-03-2023</t>
@@ -274,12 +261,18 @@
   </si>
   <si>
     <t>24-05-2023</t>
+  </si>
+  <si>
+    <t>Outward</t>
+  </si>
+  <si>
+    <t>21-jun-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -514,6 +507,9 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,55 +893,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" style="25" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
     <col min="12" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="35.88671875" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" customWidth="1"/>
-    <col min="18" max="19" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="25" width="15.5546875" customWidth="1"/>
-    <col min="26" max="26" width="20.5546875" customWidth="1"/>
-    <col min="27" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="14.88671875" customWidth="1"/>
+    <col min="21" max="25" width="15.5703125" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
+    <col min="27" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
     <col min="31" max="31" width="26" customWidth="1"/>
     <col min="32" max="32" width="23" customWidth="1"/>
-    <col min="33" max="33" width="17.33203125" customWidth="1"/>
-    <col min="34" max="34" width="21.44140625" customWidth="1"/>
-    <col min="35" max="35" width="25.44140625" customWidth="1"/>
-    <col min="36" max="36" width="12.33203125" customWidth="1"/>
-    <col min="37" max="37" width="16.109375" customWidth="1"/>
-    <col min="38" max="38" width="12.109375" customWidth="1"/>
-    <col min="39" max="1024" width="8.5546875" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="25.42578125" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" customWidth="1"/>
+    <col min="37" max="37" width="16.140625" customWidth="1"/>
+    <col min="38" max="38" width="12.140625" customWidth="1"/>
+    <col min="39" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="22" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>1</v>
@@ -972,7 +968,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1" s="20" t="s">
         <v>9</v>
@@ -981,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>11</v>
@@ -1032,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="AE1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="AG1" s="16" t="s">
         <v>27</v>
@@ -1050,57 +1046,57 @@
         <v>30</v>
       </c>
       <c r="AK1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AL1" s="21" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="34">
+        <v>45098</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="4">
+        <v>88888</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4">
-        <v>63393333</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="I2" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1111,7 +1107,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="3">
         <v>0</v>
@@ -1123,34 +1119,34 @@
         <v>2018</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AE2" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH2" s="5"/>
       <c r="AI2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AL2" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="abc@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P2" r:id="rId2" display="fe@bitaconsulting.co.in" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AE2" r:id="rId3" display="fe@bitaconsulting.co.in" xr:uid="{AD2B7700-6408-432F-AF55-1256C3D5338D}"/>
+    <hyperlink ref="I2" r:id="rId1" display="abc@gmail.com"/>
+    <hyperlink ref="P2" r:id="rId2" display="fe@bitaconsulting.co.in"/>
+    <hyperlink ref="AE2" r:id="rId3" display="fe@bitaconsulting.co.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1158,79 +1154,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>63393333</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="6">
+        <v>88888</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="H2" s="32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -1241,69 +1237,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="1029" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="1029" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>63393333</v>
+        <v>88888</v>
       </c>
       <c r="B2" s="13">
         <v>9013064058</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" s="12">
         <v>567890</v>

--- a/TestData/NoticeFileUpload.xlsx
+++ b/TestData/NoticeFileUpload.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>21-jun-2023</t>
+  </si>
+  <si>
+    <t>Delhi Value Added Tax Act, 2004</t>
+  </si>
+  <si>
+    <t>Inward</t>
   </si>
 </sst>
 </file>
@@ -896,15 +902,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" style="25" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
@@ -1054,13 +1060,13 @@
     </row>
     <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="34">
-        <v>45098</v>
+        <v>7634563</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>62</v>
@@ -1068,8 +1074,8 @@
       <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="4">
-        <v>88888</v>
+      <c r="F2" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>31</v>
@@ -1158,7 +1164,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1226,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="6">
-        <v>88888</v>
+        <v>7634563</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>66</v>
@@ -1240,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1295,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>88888</v>
+        <v>7634563</v>
       </c>
       <c r="B2" s="13">
         <v>9013064058</v>
